--- a/data/trans_media/Q46-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q46-Estudios-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,51; 78,11</t>
+          <t>76,56; 78,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,3; 80,09</t>
+          <t>78,31; 80,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,89; 80,97</t>
+          <t>78,8; 80,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,78; 81,21</t>
+          <t>78,85; 81,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,95; 69,3</t>
+          <t>67,89; 69,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,96; 72,42</t>
+          <t>71,0; 72,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,95; 72,71</t>
+          <t>70,84; 72,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,79; 71,47</t>
+          <t>69,72; 71,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,98; 73,08</t>
+          <t>71,94; 72,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,31; 75,45</t>
+          <t>74,3; 75,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>74,61; 75,98</t>
+          <t>74,65; 76,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,6; 75,14</t>
+          <t>73,6; 75,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,46; 78,52</t>
+          <t>77,53; 78,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 80,47</t>
+          <t>79,35; 80,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,22; 80,51</t>
+          <t>79,25; 80,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,14; 82,59</t>
+          <t>80,14; 82,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,18; 64,36</t>
+          <t>63,11; 64,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,74; 66,97</t>
+          <t>65,73; 66,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,89; 67,11</t>
+          <t>65,87; 67,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,27; 70,47</t>
+          <t>67,23; 70,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,63; 71,6</t>
+          <t>70,55; 71,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,04; 74,01</t>
+          <t>73,06; 74,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,78; 73,74</t>
+          <t>72,84; 73,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,82; 75,65</t>
+          <t>73,82; 75,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,14; 80,12</t>
+          <t>78,1; 80,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,8; 82,14</t>
+          <t>79,91; 82,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,45; 81,81</t>
+          <t>79,43; 81,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,68; 81,84</t>
+          <t>79,82; 81,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,91; 64,08</t>
+          <t>61,94; 64,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,02; 65,21</t>
+          <t>63,01; 65,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,68; 65,68</t>
+          <t>63,59; 65,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,29; 66,98</t>
+          <t>65,25; 66,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,7; 72,46</t>
+          <t>70,75; 72,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,76; 73,68</t>
+          <t>71,75; 73,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,8; 73,61</t>
+          <t>71,74; 73,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>72,37; 74,08</t>
+          <t>72,5; 74,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,55; 78,4</t>
+          <t>77,6; 78,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,4; 80,34</t>
+          <t>79,39; 80,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,5; 80,46</t>
+          <t>79,51; 80,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,13; 81,91</t>
+          <t>80,18; 81,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,13; 65,98</t>
+          <t>65,09; 65,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,54; 68,45</t>
+          <t>67,57; 68,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,22; 68,13</t>
+          <t>67,22; 68,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,76; 70,26</t>
+          <t>67,73; 69,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,35; 72,0</t>
+          <t>71,36; 71,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,48; 74,19</t>
+          <t>73,47; 74,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,33; 74,03</t>
+          <t>73,31; 74,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,74; 74,9</t>
+          <t>73,78; 75,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q46-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q46-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,56; 78,1</t>
+          <t>76,55; 78,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,31; 80,1</t>
+          <t>78,36; 80,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,8; 80,99</t>
+          <t>78,9; 81,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,89; 69,3</t>
+          <t>67,99; 69,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,0; 72,47</t>
+          <t>70,88; 72,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,84; 72,64</t>
+          <t>70,86; 72,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,94; 72,98</t>
+          <t>71,94; 73,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,3; 75,49</t>
+          <t>74,26; 75,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>74,65; 76,09</t>
+          <t>74,58; 76,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,53; 78,56</t>
+          <t>77,5; 78,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,35; 80,45</t>
+          <t>79,34; 80,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 80,46</t>
+          <t>79,23; 80,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,11; 64,3</t>
+          <t>63,21; 64,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,73; 66,94</t>
+          <t>65,66; 66,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,87; 67,08</t>
+          <t>65,95; 67,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,55; 71,54</t>
+          <t>70,68; 71,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,06; 74,01</t>
+          <t>73,03; 74,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,84; 73,8</t>
+          <t>72,83; 73,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,1; 80,09</t>
+          <t>78,09; 80,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,91; 82,23</t>
+          <t>79,91; 82,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,43; 81,73</t>
+          <t>79,45; 81,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,94; 64,04</t>
+          <t>62,03; 64,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,01; 65,09</t>
+          <t>63,05; 65,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,59; 65,65</t>
+          <t>63,65; 65,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,75; 72,46</t>
+          <t>70,79; 72,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,75; 73,69</t>
+          <t>71,64; 73,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,74; 73,58</t>
+          <t>71,76; 73,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,6; 78,35</t>
+          <t>77,57; 78,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,39; 80,33</t>
+          <t>79,44; 80,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,51; 80,43</t>
+          <t>79,47; 80,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,09; 65,93</t>
+          <t>65,13; 65,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,57; 68,46</t>
+          <t>67,57; 68,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,22; 68,09</t>
+          <t>67,22; 68,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,36; 71,99</t>
+          <t>71,36; 72,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,47; 74,19</t>
+          <t>73,48; 74,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,31; 74,05</t>
+          <t>73,35; 74,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
